--- a/Collections/EURO/Netherlands/#EURO#Netherlands#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Netherlands/#EURO#Netherlands#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Netherlands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD84B8D-1291-41DA-AAF8-08BB01CF45F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6B5E4D-76F0-4163-85A0-4D259B09BDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -977,7 +977,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1737,7 +1737,7 @@
         <v>54</v>
       </c>
       <c r="H26" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="12" t="str">
         <f t="shared" si="7"/>
@@ -1785,7 +1785,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3 H5 H7:H10 H12 H16">
+  <conditionalFormatting sqref="H5 H3 H7:H10 H12 H16">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1819,7 +1819,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25 H23">
+  <conditionalFormatting sqref="H23 H25">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2023,7 +2023,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27 H24">
+  <conditionalFormatting sqref="H24 H27">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Netherlands/#EURO#Netherlands#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Netherlands/#EURO#Netherlands#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Netherlands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6B5E4D-76F0-4163-85A0-4D259B09BDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8156D43-0FAA-4031-B8E0-85EE7F5C93EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -977,7 +977,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1232,7 +1232,7 @@
         <v>30</v>
       </c>
       <c r="H9" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1321,7 +1321,7 @@
         <v>31</v>
       </c>
       <c r="H12" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1785,7 +1785,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H3 H7:H10 H12 H16">
+  <conditionalFormatting sqref="H3 H5 H7:H10 H12 H16">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1819,7 +1819,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23 H25">
+  <conditionalFormatting sqref="H25 H23">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2023,7 +2023,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24 H27">
+  <conditionalFormatting sqref="H27 H24">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Netherlands/#EURO#Netherlands#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Netherlands/#EURO#Netherlands#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Netherlands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8156D43-0FAA-4031-B8E0-85EE7F5C93EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0786C68C-DA75-4119-8C17-F40878DD5FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="62">
   <si>
     <t>Year</t>
   </si>
@@ -91,12 +91,6 @@
     <t>2€</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -218,9 +212,6 @@
   </si>
   <si>
     <t xml:space="preserve">Obv: Blue and yellow figures </t>
-  </si>
-  <si>
-    <t>Subtype_3</t>
   </si>
   <si>
     <t>Rev: new map of Europe</t>
@@ -246,6 +237,33 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Series</t>
+  </si>
+  <si>
+    <t>Subtype_3#Map_of_Europe</t>
+  </si>
+  <si>
+    <t>Subtype_2#Mint_Symbol_A</t>
+  </si>
+  <si>
+    <t>Subtype_2#Mint_Symbol_B</t>
+  </si>
+  <si>
+    <t>Treaty of Rome</t>
+  </si>
+  <si>
+    <t>10 Years of EMU</t>
+  </si>
+  <si>
+    <t>10th Anniversary - Euro Coins and Banknotes</t>
+  </si>
+  <si>
+    <t>European Union flag</t>
+  </si>
+  <si>
+    <t>Erasmus Programme</t>
   </si>
 </sst>
 </file>
@@ -356,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -388,17 +406,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -424,15 +431,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -447,6 +445,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -479,7 +486,7 @@
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -511,7 +518,7 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -523,17 +530,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -542,15 +549,6 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -679,6 +677,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -700,9 +707,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="17" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -971,806 +978,870 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="14" customWidth="1"/>
     <col min="2" max="2" width="48.54296875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="24.81640625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="22.453125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="36.7265625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="22.81640625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="33.1796875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="24.81640625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="3.81640625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="14.26953125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="3" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="I1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2007</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="11">
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="11">
         <v>0</v>
       </c>
-      <c r="I3" s="12" t="str">
-        <f t="shared" ref="I3:I23" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="12" t="str">
+        <f t="shared" ref="J3:J23" si="0">IF(OR(AND(I3&gt;1,I3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2008</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="12" t="str">
+        <v>4</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2009</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="11">
+      <c r="G5" s="9"/>
+      <c r="H5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="11">
         <v>0</v>
       </c>
-      <c r="I5" s="12" t="str">
+      <c r="J5" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2010</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="12" t="str">
-        <f t="shared" ref="I6" si="1">IF(OR(AND(H6&gt;1,H6&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="12" t="str">
+        <f t="shared" ref="J6" si="1">IF(OR(AND(I6&gt;1,I6&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2011</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="11">
+      <c r="G7" s="9"/>
+      <c r="H7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="11">
         <v>1</v>
       </c>
-      <c r="I7" s="12" t="str">
+      <c r="J7" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2012</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="G8" s="9"/>
+      <c r="H8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="11">
         <v>1</v>
       </c>
-      <c r="I8" s="12" t="str">
+      <c r="J8" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>2013</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="11">
+      <c r="G9" s="9"/>
+      <c r="H9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="11">
         <v>1</v>
       </c>
-      <c r="I9" s="12" t="str">
+      <c r="J9" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>2013</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="G10" s="9"/>
+      <c r="H10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="11">
         <v>0</v>
       </c>
-      <c r="I10" s="12" t="str">
-        <f t="shared" ref="I10" si="2">IF(OR(AND(H10&gt;1,H10&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="12" t="str">
+        <f t="shared" ref="J10" si="2">IF(OR(AND(I10&gt;1,I10&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>2013</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="12" t="str">
-        <f t="shared" ref="I11" si="3">IF(OR(AND(H11&gt;1,H11&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="12" t="str">
+        <f t="shared" ref="J11" si="3">IF(OR(AND(I11&gt;1,I11&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>2014</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="11">
+      <c r="G12" s="9"/>
+      <c r="H12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="11">
         <v>1</v>
       </c>
-      <c r="I12" s="12" t="str">
+      <c r="J12" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>2014</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="12" t="str">
+      <c r="G13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>2014</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="12" t="str">
-        <f t="shared" ref="I14:I15" si="4">IF(OR(AND(H14&gt;1,H14&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H14" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="12" t="str">
+        <f t="shared" ref="J14:J15" si="4">IF(OR(AND(I14&gt;1,I14&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>2014</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="12" t="str">
+      <c r="G15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>2015</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="11">
+      <c r="G16" s="9"/>
+      <c r="H16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="11">
         <v>1</v>
       </c>
-      <c r="I16" s="12" t="str">
+      <c r="J16" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>2015</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="12" t="str">
-        <f t="shared" ref="I17" si="5">IF(OR(AND(H17&gt;1,H17&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="12" t="str">
+        <f t="shared" ref="J17" si="5">IF(OR(AND(I17&gt;1,I17&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>2015</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="12" t="str">
-        <f t="shared" ref="I18:I19" si="6">IF(OR(AND(H18&gt;1,H18&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H18" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="12" t="str">
+        <f t="shared" ref="J18:J19" si="6">IF(OR(AND(I18&gt;1,I18&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>2015</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="12" t="str">
+      <c r="G19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>2016</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="12" t="str">
+        <v>4</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>2017</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="12" t="str">
+        <v>4</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>2018</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="12" t="str">
+        <v>4</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>2019</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="12" t="str">
+        <v>4</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>2020</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="12" t="str">
-        <f t="shared" ref="I24:I26" si="7">IF(OR(AND(H24&gt;1,H24&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="12" t="str">
+        <f t="shared" ref="J24:J26" si="7">IF(OR(AND(I24&gt;1,I24&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>2021</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="12" t="str">
+        <v>4</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="12" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>2022</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" s="11">
+      <c r="G26" s="9"/>
+      <c r="H26" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="11">
         <v>1</v>
       </c>
-      <c r="I26" s="12" t="str">
+      <c r="J26" s="12" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>2023</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="12" t="str">
-        <f t="shared" ref="I27" si="8">IF(OR(AND(H27&gt;1,H27&lt;&gt;"-")),"Can exchange","")</f>
+        <v>4</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="12" t="str">
+        <f t="shared" ref="J27" si="8">IF(OR(AND(I27&gt;1,I27&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1778,14 +1849,14 @@
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3 H5 H7:H10 H12 H16">
-    <cfRule type="containsText" dxfId="18" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3 H5 H7:H10 H12 H16">
+  <conditionalFormatting sqref="I3 I5 I7:I10 I12 I16">
+    <cfRule type="containsText" dxfId="15" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3 I5 I7:I10 I12 I16">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1797,12 +1868,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="17" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
+  <conditionalFormatting sqref="I22">
+    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1814,12 +1885,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23 H25">
-    <cfRule type="containsText" dxfId="16" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25 H23">
+  <conditionalFormatting sqref="I23 I25">
+    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23 I25">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1831,12 +1902,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="15" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="I4">
+    <cfRule type="containsText" dxfId="12" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1848,12 +1919,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="I11">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1865,12 +1936,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="13" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
+  <conditionalFormatting sqref="I6">
+    <cfRule type="containsText" dxfId="10" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1882,12 +1953,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="12" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="9" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1899,12 +1970,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="11" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
+  <conditionalFormatting sqref="I21">
+    <cfRule type="containsText" dxfId="8" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1916,12 +1987,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1933,12 +2004,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
+  <conditionalFormatting sqref="I14">
+    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1950,12 +2021,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="I15">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1967,12 +2038,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
+  <conditionalFormatting sqref="I17">
+    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1984,12 +2055,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
+  <conditionalFormatting sqref="I18">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2001,12 +2072,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
+  <conditionalFormatting sqref="I19">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2018,12 +2089,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24 H27">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27 H24">
+  <conditionalFormatting sqref="I24 I27">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24 I27">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2035,12 +2106,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="I26">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2075,13 +2146,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2089,10 +2160,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2100,10 +2171,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2111,10 +2182,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2122,10 +2193,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2133,10 +2204,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2144,10 +2215,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Netherlands/#EURO#Netherlands#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Netherlands/#EURO#Netherlands#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Netherlands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0786C68C-DA75-4119-8C17-F40878DD5FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230E7840-83F6-4E8C-B43C-654F03794A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2800" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -527,6 +527,9 @@
     <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -538,9 +541,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -549,6 +549,15 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="19">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -677,15 +686,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -707,9 +707,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="17" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -984,7 +984,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1004,19 +1004,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1026,8 +1026,8 @@
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="10" t="s">
         <v>53</v>
       </c>
@@ -1058,7 +1058,7 @@
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="26" t="s">
         <v>57</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -1122,7 +1122,7 @@
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="26" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -1215,7 +1215,7 @@
       <c r="B8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -1291,7 +1291,7 @@
         <v>27</v>
       </c>
       <c r="I10" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="12" t="str">
         <f t="shared" ref="J10" si="2">IF(OR(AND(I10&gt;1,I10&lt;&gt;"-")),"Can exchange","")</f>
@@ -1460,7 +1460,7 @@
       <c r="B16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="26" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -1491,7 +1491,7 @@
       <c r="B17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="26" t="s">
         <v>60</v>
       </c>
       <c r="D17" s="9" t="s">
@@ -1524,7 +1524,7 @@
       <c r="B18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="26" t="s">
         <v>60</v>
       </c>
       <c r="D18" s="9" t="s">
@@ -1557,7 +1557,7 @@
       <c r="B19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="26" t="s">
         <v>60</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -1788,7 +1788,7 @@
       <c r="B26" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -1852,11 +1852,11 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I5 I7:I10 I12 I16">
-    <cfRule type="containsText" dxfId="15" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3 I5 I7:I10 I12 I16">
+  <conditionalFormatting sqref="I5 I3 I7:I10 I12 I16">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1869,7 +1869,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1886,11 +1886,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23 I25">
-    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23 I25">
+  <conditionalFormatting sqref="I25 I23">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1903,7 +1903,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="12" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1920,7 +1920,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1937,7 +1937,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="10" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1954,7 +1954,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="9" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1971,7 +1971,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="containsText" dxfId="8" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1988,7 +1988,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2005,7 +2005,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2022,7 +2022,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2039,7 +2039,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2056,7 +2056,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2073,7 +2073,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2090,11 +2090,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24 I27">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24 I27">
+  <conditionalFormatting sqref="I27 I24">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2107,7 +2107,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Netherlands/#EURO#Netherlands#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Netherlands/#EURO#Netherlands#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Netherlands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230E7840-83F6-4E8C-B43C-654F03794A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E379EDBD-5D5D-408F-89E7-7DD0A0896AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4900" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="62">
   <si>
     <t>Year</t>
   </si>
@@ -548,7 +548,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -707,9 +715,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -978,13 +986,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1845,6 +1853,39 @@
         <v/>
       </c>
     </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>2024</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="12" t="str">
+        <f t="shared" ref="J28" si="9">IF(OR(AND(I28&gt;1,I28&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
@@ -1852,12 +1893,12 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I5 I7:I10 I12 I16">
-    <cfRule type="containsText" dxfId="18" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5 I3 I7:I10 I12 I16">
-    <cfRule type="colorScale" priority="44">
+  <conditionalFormatting sqref="I3 I5 I7:I10 I12 I16">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1869,11 +1910,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
+    <cfRule type="containsText" dxfId="18" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23 I25">
     <cfRule type="containsText" dxfId="17" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23 I25">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1885,13 +1943,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23 I25">
-    <cfRule type="containsText" dxfId="16" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25 I23">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="I4">
+    <cfRule type="containsText" dxfId="16" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1902,12 +1960,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="15" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
+  <conditionalFormatting sqref="I11">
+    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="containsText" dxfId="14" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1919,12 +1994,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="13" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="containsText" dxfId="12" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1936,63 +2045,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="13" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="12" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="containsText" dxfId="11" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I21))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
+  <conditionalFormatting sqref="I14">
     <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2004,12 +2062,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
+  <conditionalFormatting sqref="I15">
     <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2021,12 +2079,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
+  <conditionalFormatting sqref="I17">
     <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2038,12 +2096,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
+  <conditionalFormatting sqref="I18">
     <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2055,12 +2113,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
+  <conditionalFormatting sqref="I19">
     <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2072,12 +2130,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
+  <conditionalFormatting sqref="I24 I27">
     <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24 I27">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2089,13 +2147,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24 I27">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27 I24">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="I26">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2106,12 +2164,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
+  <conditionalFormatting sqref="I28">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Netherlands/#EURO#Netherlands#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Netherlands/#EURO#Netherlands#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Netherlands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E379EDBD-5D5D-408F-89E7-7DD0A0896AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B31E6A8-0E1A-40C6-AB79-BCA4EDF18F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -550,14 +550,6 @@
   </cellStyles>
   <dxfs count="20">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -565,6 +557,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -715,9 +715,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -992,7 +992,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1083,7 +1083,7 @@
         <v>24</v>
       </c>
       <c r="I3" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="12" t="str">
         <f t="shared" ref="J3:J23" si="0">IF(OR(AND(I3&gt;1,I3&lt;&gt;"-")),"Can exchange","")</f>
@@ -1897,7 +1897,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3 I5 I7:I10 I12 I16">
+  <conditionalFormatting sqref="I5 I3 I7:I10 I12 I16">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1931,7 +1931,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23 I25">
+  <conditionalFormatting sqref="I25 I23">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2135,7 +2135,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24 I27">
+  <conditionalFormatting sqref="I27 I24">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2165,7 +2165,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I28))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Netherlands/#EURO#Netherlands#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Netherlands/#EURO#Netherlands#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Netherlands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B31E6A8-0E1A-40C6-AB79-BCA4EDF18F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933447FC-B8B5-44E2-9AEA-D210FD0DBC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7970" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -992,7 +992,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1147,7 +1147,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1897,7 +1897,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5 I3 I7:I10 I12 I16">
+  <conditionalFormatting sqref="I3 I5 I7:I10 I12 I16">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1931,7 +1931,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25 I23">
+  <conditionalFormatting sqref="I23 I25">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2135,7 +2135,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27 I24">
+  <conditionalFormatting sqref="I24 I27">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Netherlands/#EURO#Netherlands#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Netherlands/#EURO#Netherlands#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Netherlands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933447FC-B8B5-44E2-9AEA-D210FD0DBC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B4A939-2721-4EB5-A463-8A9274B00547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7970" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2€'!$B$2:$G$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -217,9 +220,6 @@
     <t>Rev: new map of Europe</t>
   </si>
   <si>
-    <t>Subtype_4</t>
-  </si>
-  <si>
     <t>Obv: With mint symbol - 
 Staff of Mercury</t>
   </si>
@@ -245,12 +245,6 @@
     <t>Subtype_3#Map_of_Europe</t>
   </si>
   <si>
-    <t>Subtype_2#Mint_Symbol_A</t>
-  </si>
-  <si>
-    <t>Subtype_2#Mint_Symbol_B</t>
-  </si>
-  <si>
     <t>Treaty of Rome</t>
   </si>
   <si>
@@ -264,6 +258,15 @@
   </si>
   <si>
     <t>Erasmus Programme</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_4#Special_marks_2</t>
+  </si>
+  <si>
+    <t>Subtype_4#Coloured</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -529,6 +532,9 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -992,39 +998,33 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G21:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="48.54296875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="22.453125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="36.7265625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="22.81640625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="33.1796875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="24.81640625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="14" customWidth="1"/>
-    <col min="9" max="9" width="3.81640625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="14" customWidth="1"/>
+    <col min="3" max="7" width="33.6328125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="3.6328125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" style="14" customWidth="1"/>
     <col min="11" max="11" width="14.26953125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1034,22 +1034,24 @@
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="C2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>56</v>
+      <c r="F2" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>23</v>
@@ -1067,16 +1069,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="10" t="s">
@@ -1131,16 +1133,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="10" t="s">
@@ -1196,13 +1198,13 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="10" t="s">
@@ -1221,19 +1223,19 @@
         <v>2012</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="10" t="s">
@@ -1256,13 +1258,13 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="10" t="s">
@@ -1286,13 +1288,13 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="10" t="s">
@@ -1316,13 +1318,13 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>35</v>
@@ -1348,13 +1350,13 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="10" t="s">
@@ -1377,13 +1379,13 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>38</v>
@@ -1408,13 +1410,13 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>39</v>
@@ -1439,13 +1441,13 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>40</v>
@@ -1469,16 +1471,16 @@
         <v>8</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="10" t="s">
@@ -1500,16 +1502,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>42</v>
@@ -1533,16 +1535,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>43</v>
@@ -1566,16 +1568,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>44</v>
@@ -1794,23 +1796,23 @@
         <v>2022</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I26" s="11">
         <v>1</v>
@@ -1887,9 +1889,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I5 I7:I10 I12 I16">
@@ -1897,7 +1899,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3 I5 I7:I10 I12 I16">
+  <conditionalFormatting sqref="I5 I3 I7:I10 I12 I16">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1931,7 +1933,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23 I25">
+  <conditionalFormatting sqref="I25 I23">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2135,7 +2137,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24 I27">
+  <conditionalFormatting sqref="I27 I24">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
